--- a/Backend.xlsx
+++ b/Backend.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="495" windowWidth="19230" windowHeight="12210" tabRatio="750"/>
+    <workbookView xWindow="7110" yWindow="495" windowWidth="19230" windowHeight="12210" tabRatio="750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JavaCore" sheetId="40" r:id="rId1"/>
+    <sheet name="Hibernate" sheetId="42" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,23 +26,85 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giải quyết vấn đề class con nào được dùng hàm nào</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Class Component</t>
-  </si>
-  <si>
-    <t>Function Component</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Single Responsibility principle</t>
+  </si>
+  <si>
+    <t>Dont let one class do many function, split them into multiple class</t>
+  </si>
+  <si>
+    <t>Open / Closed principle</t>
+  </si>
+  <si>
+    <t>Software modules should be closed for modifications but open for extensions</t>
+  </si>
+  <si>
+    <t>Kế thừa</t>
+  </si>
+  <si>
+    <t>Nhiều class</t>
+  </si>
+  <si>
+    <t>Liskov substitution principle</t>
+  </si>
+  <si>
+    <t>Objects in a program should be replaceable with instances of their subtypes without altering the correctness of that program</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Interface segregation principle</t>
+  </si>
+  <si>
+    <t>Nếu Interface quá lớn thì nên tách thành các interface nhỏ hơn, với nhiều mục đích cụ thể.</t>
+  </si>
+  <si>
+    <t>Dependency Inversion principle</t>
+  </si>
+  <si>
+    <t>Mỗi thành phần hệ thống (class, module, …) chỉ nên phụ thuộc vào các abstractions, không nên phụ thuộc vào các concretions hoặc implementations cụ thể</t>
+  </si>
+  <si>
+    <t>Đa hình - truyền class</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +130,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +162,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -131,11 +212,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -159,6 +264,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +279,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFFC5C5"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCDEDFF"/>
@@ -174,7 +287,6 @@
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFFF7F7"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FFFFFFEB"/>
       <color rgb="FFCFAFE7"/>
     </mruColors>
@@ -452,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -469,17 +581,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -492,6 +606,157 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.42578125" style="1"/>
+    <col min="3" max="4" width="19.42578125" style="6"/>
+    <col min="5" max="5" width="19.42578125" style="1"/>
+    <col min="6" max="16384" width="19.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
